--- a/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-2.xlsx
+++ b/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Noveno Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBEAC1F-0398-494A-9D32-D3957662A24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E32E3-646A-4D2F-8323-A845430F5761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14400" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="1005" yWindow="255" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -180,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +230,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D38"/>
+  <dimension ref="A3:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +572,10 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -578,8 +588,11 @@
       <c r="D3" s="7">
         <v>43985</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1629</v>
       </c>
@@ -592,8 +605,11 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1711</v>
       </c>
@@ -607,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1983</v>
       </c>
@@ -621,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1713</v>
       </c>
@@ -635,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1633</v>
       </c>
@@ -645,8 +661,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2257</v>
       </c>
@@ -659,8 +678,11 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1689</v>
       </c>
@@ -673,8 +695,11 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4154</v>
       </c>
@@ -687,8 +712,11 @@
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>913</v>
       </c>
@@ -701,19 +729,24 @@
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>2068</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2373</v>
       </c>
@@ -726,8 +759,11 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4286</v>
       </c>
@@ -740,8 +776,11 @@
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1663</v>
       </c>
@@ -754,8 +793,11 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1718</v>
       </c>
@@ -768,8 +810,11 @@
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2063</v>
       </c>
@@ -782,8 +827,11 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1695</v>
       </c>
@@ -796,8 +844,11 @@
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4287</v>
       </c>
@@ -810,8 +861,11 @@
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1738</v>
       </c>
@@ -824,8 +878,11 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1723</v>
       </c>
@@ -838,8 +895,11 @@
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4311</v>
       </c>
@@ -852,8 +912,11 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1724</v>
       </c>
@@ -863,8 +926,11 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1404</v>
       </c>
@@ -877,8 +943,11 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3850</v>
       </c>
@@ -891,8 +960,11 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1996</v>
       </c>
@@ -905,8 +977,11 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2593</v>
       </c>
@@ -919,8 +994,11 @@
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1801</v>
       </c>
@@ -933,8 +1011,11 @@
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1795</v>
       </c>
@@ -947,8 +1028,11 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4288</v>
       </c>
@@ -962,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3197</v>
       </c>
@@ -975,8 +1059,11 @@
       <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3272</v>
       </c>
@@ -989,8 +1076,11 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>693</v>
       </c>
@@ -1003,8 +1093,11 @@
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1764</v>
       </c>
@@ -1015,7 +1108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3877</v>
       </c>
@@ -1028,8 +1121,11 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1708</v>
       </c>
@@ -1042,14 +1138,21 @@
       <c r="D37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="8">
         <f>COUNTA(D4:D37)</f>
         <v>30</v>
+      </c>
+      <c r="E38" s="8">
+        <f>COUNTA(E4:E37)</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-2.xlsx
+++ b/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Noveno Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E32E3-646A-4D2F-8323-A845430F5761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83EEE4B-5E43-48A3-AC0A-B0840F73D986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="255" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{89E2C769-2E19-4A46-8CE5-2CF4CE75B037}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>TORRES VILLAMIZAR JULIAN DAVID</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CEL</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E38"/>
+  <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +580,11 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,8 +600,17 @@
       <c r="E3" s="7">
         <v>43999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>44027</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1629</v>
       </c>
@@ -608,8 +626,17 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1711</v>
       </c>
@@ -622,8 +649,17 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1983</v>
       </c>
@@ -636,8 +672,20 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1713</v>
       </c>
@@ -650,8 +698,17 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1633</v>
       </c>
@@ -664,8 +721,15 @@
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2257</v>
       </c>
@@ -681,8 +745,17 @@
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1689</v>
       </c>
@@ -698,8 +771,17 @@
       <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4154</v>
       </c>
@@ -715,8 +797,17 @@
       <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>913</v>
       </c>
@@ -732,8 +823,17 @@
       <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2068</v>
       </c>
@@ -745,8 +845,15 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2373</v>
       </c>
@@ -762,8 +869,17 @@
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4286</v>
       </c>
@@ -779,8 +895,17 @@
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1663</v>
       </c>
@@ -796,8 +921,17 @@
       <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1718</v>
       </c>
@@ -813,8 +947,17 @@
       <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2063</v>
       </c>
@@ -830,8 +973,17 @@
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1695</v>
       </c>
@@ -847,8 +999,17 @@
       <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4287</v>
       </c>
@@ -864,8 +1025,17 @@
       <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1738</v>
       </c>
@@ -881,8 +1051,17 @@
       <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1723</v>
       </c>
@@ -898,8 +1077,17 @@
       <c r="E22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4311</v>
       </c>
@@ -915,8 +1103,17 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1724</v>
       </c>
@@ -929,8 +1126,17 @@
       <c r="E24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1404</v>
       </c>
@@ -946,8 +1152,17 @@
       <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3850</v>
       </c>
@@ -963,8 +1178,17 @@
       <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1996</v>
       </c>
@@ -980,8 +1204,17 @@
       <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2593</v>
       </c>
@@ -997,8 +1230,17 @@
       <c r="E28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1801</v>
       </c>
@@ -1014,8 +1256,17 @@
       <c r="E29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1795</v>
       </c>
@@ -1031,8 +1282,17 @@
       <c r="E30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4288</v>
       </c>
@@ -1045,8 +1305,15 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3197</v>
       </c>
@@ -1062,8 +1329,17 @@
       <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3272</v>
       </c>
@@ -1079,8 +1355,17 @@
       <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>693</v>
       </c>
@@ -1096,8 +1381,17 @@
       <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1764</v>
       </c>
@@ -1107,8 +1401,15 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3877</v>
       </c>
@@ -1124,8 +1425,17 @@
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1708</v>
       </c>
@@ -1141,8 +1451,17 @@
       <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1471,18 @@
       </c>
       <c r="E38" s="8">
         <f>COUNTA(E4:E37)</f>
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F38" s="8">
+        <f>COUNTA(F7:F37)</f>
+        <v>27</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,9 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F14E4E-6367-4BCF-88A7-647C3E1932AC}">
   <dimension ref="A3:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-2.xlsx
+++ b/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Noveno Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83EEE4B-5E43-48A3-AC0A-B0840F73D986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC5B3DF-60D7-49B2-A40C-070314A3703A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{89E2C769-2E19-4A46-8CE5-2CF4CE75B037}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -569,10 +569,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +582,7 @@
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.140625" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -603,7 +604,9 @@
       <c r="F3" s="7">
         <v>44027</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>44034</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -629,7 +632,9 @@
       <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -652,7 +657,9 @@
       <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -701,7 +708,9 @@
       <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -722,7 +731,9 @@
         <v>4</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -748,7 +759,9 @@
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -774,7 +787,9 @@
       <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -800,7 +815,9 @@
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -826,14 +843,16 @@
       <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2068</v>
       </c>
@@ -847,8 +866,8 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -872,7 +891,9 @@
       <c r="F14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -898,7 +919,9 @@
       <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -924,7 +947,9 @@
       <c r="F16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -950,7 +975,9 @@
       <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -976,7 +1003,9 @@
       <c r="F18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1002,7 +1031,9 @@
       <c r="F19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1028,7 +1059,9 @@
       <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1054,7 +1087,9 @@
       <c r="F21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1080,7 +1115,9 @@
       <c r="F22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1106,7 +1143,9 @@
       <c r="F23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1129,7 +1168,9 @@
       <c r="F24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1155,7 +1196,9 @@
       <c r="F25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1181,7 +1224,9 @@
       <c r="F26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1207,7 +1252,9 @@
       <c r="F27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1233,7 +1280,9 @@
       <c r="F28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1259,7 +1308,9 @@
       <c r="F29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1285,7 +1336,9 @@
       <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1332,7 +1385,9 @@
       <c r="F32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1358,7 +1413,9 @@
       <c r="F33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1384,7 +1441,9 @@
       <c r="F34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1428,7 +1487,9 @@
       <c r="F36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1454,7 +1515,9 @@
       <c r="F37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1477,7 +1540,10 @@
         <f>COUNTA(F7:F37)</f>
         <v>27</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="8">
+        <f>COUNTA(G4:G37)</f>
+        <v>30</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
